--- a/tables/order.xlsx
+++ b/tables/order.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2020-01-25</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-26</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>175</v>
+        <v>281</v>
       </c>
       <c r="F2" t="n">
-        <v>382</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -495,22 +495,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2020-02-01</t>
+          <t>2020-01-27</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F3" t="n">
-        <v>49</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4">
@@ -519,22 +519,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2020-02-02</t>
+          <t>2020-02-01</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>86</v>
+        <v>491</v>
       </c>
       <c r="F4" t="n">
-        <v>305</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -543,22 +543,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="F5" t="n">
-        <v>553</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6">
@@ -567,22 +567,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>220</v>
+        <v>486</v>
       </c>
       <c r="F6" t="n">
-        <v>268</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7">
@@ -591,22 +591,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2020-02-09</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="F7" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8">
@@ -615,22 +615,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-03-03</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-03-06</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>212</v>
+        <v>479</v>
       </c>
       <c r="F8" t="n">
-        <v>60</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9">
@@ -639,22 +639,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-03-07</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>234</v>
+        <v>374</v>
       </c>
       <c r="F9" t="n">
-        <v>575</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10">
@@ -663,22 +663,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2020-02-29</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-03-07</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="F10" t="n">
-        <v>68</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11">
@@ -687,19 +687,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-03-12</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2020-03-08</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>269</v>
+        <v>59</v>
       </c>
       <c r="F11" t="n">
         <v>467</v>
@@ -711,22 +711,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-03-31</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>209</v>
+        <v>291</v>
       </c>
       <c r="F12" t="n">
-        <v>351</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13">
@@ -735,22 +735,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-04-09</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2020-03-15</t>
+          <t>2020-04-12</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="F13" t="n">
-        <v>602</v>
+        <v>656</v>
       </c>
     </row>
     <row r="14">
@@ -759,22 +759,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2020-03-13</t>
+          <t>2020-04-12</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2020-03-16</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="F14" t="n">
-        <v>260</v>
+        <v>597</v>
       </c>
     </row>
     <row r="15">
@@ -783,22 +783,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2020-04-19</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2020-03-21</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>492</v>
+        <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>93</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16">
@@ -807,22 +807,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2020-03-23</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2020-03-26</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="F16" t="n">
-        <v>130</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17">
@@ -831,22 +831,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2020-03-24</t>
+          <t>2020-04-30</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2020-03-27</t>
+          <t>2020-05-03</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>465</v>
+        <v>166</v>
       </c>
       <c r="F17" t="n">
-        <v>68</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18">
@@ -855,22 +855,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2020-03-30</t>
+          <t>2020-05-02</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2020-04-02</t>
+          <t>2020-05-05</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>160</v>
+        <v>298</v>
       </c>
       <c r="F18" t="n">
-        <v>190</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19">
@@ -879,22 +879,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2020-05-10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2020-05-13</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>492</v>
+        <v>349</v>
       </c>
       <c r="F19" t="n">
-        <v>93</v>
+        <v>654</v>
       </c>
     </row>
     <row r="20">
@@ -903,22 +903,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2020-04-12</t>
+          <t>2020-05-12</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2020-04-15</t>
+          <t>2020-05-15</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>309</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>309</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21">
@@ -927,22 +927,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2020-04-14</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2020-04-17</t>
+          <t>2020-05-27</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>392</v>
+        <v>303</v>
       </c>
       <c r="F21" t="n">
-        <v>31</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22">
@@ -951,22 +951,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2020-04-17</t>
+          <t>2020-05-26</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2020-04-20</t>
+          <t>2020-05-29</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
-        <v>384</v>
+        <v>47</v>
       </c>
       <c r="F22" t="n">
-        <v>586</v>
+        <v>649</v>
       </c>
     </row>
     <row r="23">
@@ -975,22 +975,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2020-04-18</t>
+          <t>2020-05-31</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>2020-06-03</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>104</v>
+        <v>243</v>
       </c>
       <c r="F23" t="n">
-        <v>427</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24">
@@ -999,22 +999,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2020-04-18</t>
+          <t>2020-06-06</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>2020-06-09</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E24" t="n">
-        <v>442</v>
+        <v>37</v>
       </c>
       <c r="F24" t="n">
-        <v>350</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25">
@@ -1023,22 +1023,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>2020-06-09</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2020-04-24</t>
+          <t>2020-06-12</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F25" t="n">
-        <v>16</v>
+        <v>608</v>
       </c>
     </row>
     <row r="26">
@@ -1047,22 +1047,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>2020-06-17</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2020-04-24</t>
+          <t>2020-06-20</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
-        <v>119</v>
+        <v>492</v>
       </c>
       <c r="F26" t="n">
-        <v>267</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27">
@@ -1071,22 +1071,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2020-04-23</t>
+          <t>2020-06-18</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2020-04-26</t>
+          <t>2020-06-21</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>266</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28">
@@ -1095,22 +1095,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2020-04-24</t>
+          <t>2020-06-26</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2020-04-27</t>
+          <t>2020-06-29</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>68</v>
+        <v>401</v>
       </c>
       <c r="F28" t="n">
-        <v>641</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
@@ -1119,22 +1119,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2020-05-10</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2020-05-13</t>
+          <t>2020-07-10</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="F29" t="n">
-        <v>480</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
@@ -1143,22 +1143,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2020-07-11</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2020-05-14</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="F30" t="n">
-        <v>579</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31">
@@ -1167,22 +1167,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2020-05-13</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2020-05-16</t>
+          <t>2020-08-17</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>298</v>
+        <v>407</v>
       </c>
       <c r="F31" t="n">
-        <v>252</v>
+        <v>529</v>
       </c>
     </row>
     <row r="32">
@@ -1191,22 +1191,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2020-05-15</t>
+          <t>2020-08-28</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>458</v>
+        <v>130</v>
       </c>
       <c r="F32" t="n">
-        <v>556</v>
+        <v>661</v>
       </c>
     </row>
     <row r="33">
@@ -1215,22 +1215,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2020-05-19</t>
+          <t>2020-09-07</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2020-09-10</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>6</v>
       </c>
       <c r="E33" t="n">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="F33" t="n">
-        <v>4</v>
+        <v>539</v>
       </c>
     </row>
     <row r="34">
@@ -1239,22 +1239,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2020-05-19</t>
+          <t>2020-09-09</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2020-09-12</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E34" t="n">
-        <v>405</v>
+        <v>173</v>
       </c>
       <c r="F34" t="n">
-        <v>352</v>
+        <v>659</v>
       </c>
     </row>
     <row r="35">
@@ -1263,22 +1263,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2020-05-31</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>409</v>
+        <v>281</v>
       </c>
       <c r="F35" t="n">
-        <v>553</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
@@ -1287,22 +1287,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2020-05-29</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2020-06-01</t>
+          <t>2020-09-22</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>485</v>
+        <v>92</v>
       </c>
       <c r="F36" t="n">
-        <v>369</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37">
@@ -1311,22 +1311,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2020-05-30</t>
+          <t>2020-09-23</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2020-06-02</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E37" t="n">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="F37" t="n">
-        <v>567</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2020-06-06</t>
+          <t>2020-10-10</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2020-06-09</t>
+          <t>2020-10-13</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E38" t="n">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="F38" t="n">
-        <v>427</v>
+        <v>539</v>
       </c>
     </row>
     <row r="39">
@@ -1359,22 +1359,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2020-06-09</t>
+          <t>2020-10-18</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2020-06-12</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E39" t="n">
-        <v>259</v>
+        <v>401</v>
       </c>
       <c r="F39" t="n">
-        <v>442</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40">
@@ -1383,22 +1383,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2020-06-12</t>
+          <t>2020-10-20</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2020-06-15</t>
+          <t>2020-10-23</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E40" t="n">
-        <v>229</v>
+        <v>337</v>
       </c>
       <c r="F40" t="n">
-        <v>298</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41">
@@ -1407,22 +1407,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2020-06-18</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2020-06-21</t>
+          <t>2020-10-24</t>
         </is>
       </c>
       <c r="D41" t="n">
         <v>4</v>
       </c>
       <c r="E41" t="n">
-        <v>10</v>
+        <v>277</v>
       </c>
       <c r="F41" t="n">
-        <v>306</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42">
@@ -1431,22 +1431,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2020-06-20</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2020-06-23</t>
+          <t>2020-10-25</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E42" t="n">
-        <v>231</v>
+        <v>479</v>
       </c>
       <c r="F42" t="n">
-        <v>146</v>
+        <v>643</v>
       </c>
     </row>
     <row r="43">
@@ -1455,22 +1455,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2020-07-01</t>
+          <t>2020-11-02</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2020-07-04</t>
+          <t>2020-11-05</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E43" t="n">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="F43" t="n">
-        <v>288</v>
+        <v>649</v>
       </c>
     </row>
     <row r="44">
@@ -1479,22 +1479,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2020-07-01</t>
+          <t>2020-11-11</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2020-07-04</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E44" t="n">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="F44" t="n">
-        <v>325</v>
+        <v>469</v>
       </c>
     </row>
     <row r="45">
@@ -1503,22 +1503,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2020-07-03</t>
+          <t>2020-11-24</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>2020-11-27</t>
         </is>
       </c>
       <c r="D45" t="n">
         <v>6</v>
       </c>
       <c r="E45" t="n">
-        <v>174</v>
+        <v>237</v>
       </c>
       <c r="F45" t="n">
-        <v>392</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -1527,22 +1527,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2020-07-04</t>
+          <t>2020-11-30</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>2020-12-03</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46" t="n">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="F46" t="n">
-        <v>527</v>
+        <v>572</v>
       </c>
     </row>
     <row r="47">
@@ -1551,22 +1551,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2020-12-10</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2020-07-12</t>
+          <t>2020-12-13</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E47" t="n">
-        <v>356</v>
+        <v>197</v>
       </c>
       <c r="F47" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="48">
@@ -1575,22 +1575,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>2020-12-12</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2020-07-18</t>
+          <t>2020-12-15</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E48" t="n">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F48" t="n">
-        <v>60</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49">
@@ -1599,22 +1599,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>2020-12-20</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2020-07-19</t>
+          <t>2020-12-23</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E49" t="n">
-        <v>366</v>
+        <v>303</v>
       </c>
       <c r="F49" t="n">
-        <v>631</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50">
@@ -1623,22 +1623,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2020-07-19</t>
+          <t>2020-12-25</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>2020-12-28</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E50" t="n">
-        <v>507</v>
+        <v>167</v>
       </c>
       <c r="F50" t="n">
-        <v>464</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51">
@@ -1647,22 +1647,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2020-07-19</t>
+          <t>2021-01-02</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>2021-01-05</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E51" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F51" t="n">
-        <v>309</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52">
@@ -1671,22 +1671,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2020-07-24</t>
+          <t>2021-01-09</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>2021-01-12</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E52" t="n">
-        <v>338</v>
+        <v>430</v>
       </c>
       <c r="F52" t="n">
-        <v>655</v>
+        <v>495</v>
       </c>
     </row>
     <row r="53">
@@ -1695,22 +1695,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2020-08-01</t>
+          <t>2021-01-21</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>2021-01-24</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E53" t="n">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="F53" t="n">
-        <v>382</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54">
@@ -1719,22 +1719,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2020-08-01</t>
+          <t>2021-01-25</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E54" t="n">
-        <v>119</v>
+        <v>425</v>
       </c>
       <c r="F54" t="n">
-        <v>267</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55">
@@ -1743,22 +1743,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>2021-02-08</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>2021-02-11</t>
         </is>
       </c>
       <c r="D55" t="n">
         <v>5</v>
       </c>
       <c r="E55" t="n">
-        <v>458</v>
+        <v>156</v>
       </c>
       <c r="F55" t="n">
-        <v>120</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -1767,22 +1767,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>2021-02-16</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>2021-02-19</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>4</v>
       </c>
       <c r="E56" t="n">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="F56" t="n">
-        <v>224</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57">
@@ -1791,22 +1791,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2020-08-27</t>
+          <t>2021-02-20</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2020-08-30</t>
+          <t>2021-02-23</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E57" t="n">
-        <v>405</v>
+        <v>154</v>
       </c>
       <c r="F57" t="n">
-        <v>399</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58">
@@ -1815,22 +1815,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2020-08-27</t>
+          <t>2021-02-24</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2020-08-30</t>
+          <t>2021-02-27</t>
         </is>
       </c>
       <c r="D58" t="n">
         <v>4</v>
       </c>
       <c r="E58" t="n">
-        <v>194</v>
+        <v>73</v>
       </c>
       <c r="F58" t="n">
-        <v>240</v>
+        <v>647</v>
       </c>
     </row>
     <row r="59">
@@ -1839,22 +1839,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2020-08-28</t>
+          <t>2021-03-03</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2021-03-06</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E59" t="n">
-        <v>301</v>
+        <v>242</v>
       </c>
       <c r="F59" t="n">
-        <v>125</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60">
@@ -1863,22 +1863,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2020-08-29</t>
+          <t>2021-03-04</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2021-03-07</t>
         </is>
       </c>
       <c r="D60" t="n">
         <v>5</v>
       </c>
       <c r="E60" t="n">
-        <v>318</v>
+        <v>130</v>
       </c>
       <c r="F60" t="n">
-        <v>395</v>
+        <v>661</v>
       </c>
     </row>
     <row r="61">
@@ -1887,22 +1887,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>2021-03-12</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E61" t="n">
-        <v>154</v>
+        <v>379</v>
       </c>
       <c r="F61" t="n">
-        <v>266</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62">
@@ -1911,22 +1911,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>2021-03-13</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2020-09-21</t>
+          <t>2021-03-16</t>
         </is>
       </c>
       <c r="D62" t="n">
         <v>5</v>
       </c>
       <c r="E62" t="n">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="F62" t="n">
-        <v>288</v>
+        <v>437</v>
       </c>
     </row>
     <row r="63">
@@ -1935,22 +1935,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2021-03-14</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>2021-03-17</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E63" t="n">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="F63" t="n">
-        <v>417</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64">
@@ -1959,22 +1959,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>2021-03-18</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2020-10-12</t>
+          <t>2021-03-21</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E64" t="n">
-        <v>155</v>
+        <v>277</v>
       </c>
       <c r="F64" t="n">
-        <v>80</v>
+        <v>363</v>
       </c>
     </row>
     <row r="65">
@@ -1983,22 +1983,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2020-10-11</t>
+          <t>2021-03-26</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2020-10-14</t>
+          <t>2021-03-29</t>
         </is>
       </c>
       <c r="D65" t="n">
         <v>6</v>
       </c>
       <c r="E65" t="n">
-        <v>267</v>
+        <v>374</v>
       </c>
       <c r="F65" t="n">
-        <v>134</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66">
@@ -2007,22 +2007,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2020-10-11</t>
+          <t>2021-04-03</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2020-10-14</t>
+          <t>2021-04-06</t>
         </is>
       </c>
       <c r="D66" t="n">
         <v>4</v>
       </c>
       <c r="E66" t="n">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="F66" t="n">
-        <v>179</v>
+        <v>531</v>
       </c>
     </row>
     <row r="67">
@@ -2031,22 +2031,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2020-10-14</t>
+          <t>2021-04-04</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2020-10-17</t>
+          <t>2021-04-07</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E67" t="n">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="F67" t="n">
-        <v>300</v>
+        <v>654</v>
       </c>
     </row>
     <row r="68">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
+          <t>2021-04-12</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2020-10-18</t>
+          <t>2021-04-15</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E68" t="n">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="F68" t="n">
-        <v>255</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69">
@@ -2079,22 +2079,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2020-10-18</t>
+          <t>2021-04-21</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E69" t="n">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="F69" t="n">
-        <v>306</v>
+        <v>465</v>
       </c>
     </row>
     <row r="70">
@@ -2103,22 +2103,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2020-10-20</t>
+          <t>2021-04-21</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2020-10-23</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E70" t="n">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="F70" t="n">
-        <v>62</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71">
@@ -2127,22 +2127,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2020-10-20</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2020-10-23</t>
+          <t>2021-04-27</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E71" t="n">
-        <v>119</v>
+        <v>419</v>
       </c>
       <c r="F71" t="n">
-        <v>267</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72">
@@ -2151,22 +2151,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2020-10-24</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2020-10-27</t>
+          <t>2021-05-04</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E72" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F72" t="n">
-        <v>586</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73">
@@ -2175,22 +2175,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2020-10-27</t>
+          <t>2021-05-03</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E73" t="n">
-        <v>308</v>
+        <v>430</v>
       </c>
       <c r="F73" t="n">
-        <v>480</v>
+        <v>495</v>
       </c>
     </row>
     <row r="74">
@@ -2199,22 +2199,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2020-11-04</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2020-11-07</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E74" t="n">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="F74" t="n">
-        <v>351</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75">
@@ -2223,22 +2223,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2020-11-07</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2020-11-10</t>
+          <t>2021-05-16</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E75" t="n">
-        <v>409</v>
+        <v>242</v>
       </c>
       <c r="F75" t="n">
-        <v>553</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76">
@@ -2247,22 +2247,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2020-11-11</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>2021-05-21</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E76" t="n">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="F76" t="n">
-        <v>351</v>
+        <v>624</v>
       </c>
     </row>
     <row r="77">
@@ -2271,22 +2271,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2020-11-12</t>
+          <t>2021-05-25</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2020-11-15</t>
+          <t>2021-05-28</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E77" t="n">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="F77" t="n">
-        <v>62</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78">
@@ -2295,22 +2295,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2020-11-18</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>2021-05-30</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E78" t="n">
-        <v>220</v>
+        <v>144</v>
       </c>
       <c r="F78" t="n">
-        <v>268</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79">
@@ -2319,22 +2319,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>2021-05-28</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2020-11-24</t>
+          <t>2021-05-31</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E79" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F79" t="n">
-        <v>303</v>
+        <v>410</v>
       </c>
     </row>
     <row r="80">
@@ -2343,22 +2343,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2020-11-26</t>
+          <t>2021-05-28</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2021-05-31</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E80" t="n">
-        <v>486</v>
+        <v>257</v>
       </c>
       <c r="F80" t="n">
-        <v>297</v>
+        <v>542</v>
       </c>
     </row>
     <row r="81">
@@ -2367,22 +2367,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2020-12-02</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E81" t="n">
-        <v>245</v>
+        <v>344</v>
       </c>
       <c r="F81" t="n">
-        <v>660</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2391,22 +2391,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2020-12-23</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2020-12-26</t>
+          <t>2021-06-26</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E82" t="n">
-        <v>190</v>
+        <v>442</v>
       </c>
       <c r="F82" t="n">
-        <v>132</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83">
@@ -2415,22 +2415,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2020-12-26</t>
+          <t>2021-07-03</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2020-12-29</t>
+          <t>2021-07-06</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E83" t="n">
-        <v>104</v>
+        <v>373</v>
       </c>
       <c r="F83" t="n">
-        <v>427</v>
+        <v>631</v>
       </c>
     </row>
     <row r="84">
@@ -2439,22 +2439,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2020-12-26</t>
+          <t>2021-07-06</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2020-12-29</t>
+          <t>2021-07-09</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E84" t="n">
-        <v>220</v>
+        <v>326</v>
       </c>
       <c r="F84" t="n">
-        <v>268</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85">
@@ -2463,22 +2463,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2020-12-26</t>
+          <t>2021-07-06</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2020-12-29</t>
+          <t>2021-07-09</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E85" t="n">
-        <v>454</v>
+        <v>373</v>
       </c>
       <c r="F85" t="n">
-        <v>554</v>
+        <v>631</v>
       </c>
     </row>
     <row r="86">
@@ -2487,22 +2487,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2020-12-27</t>
+          <t>2021-07-16</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2020-12-30</t>
+          <t>2021-07-19</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E86" t="n">
-        <v>482</v>
+        <v>45</v>
       </c>
       <c r="F86" t="n">
-        <v>332</v>
+        <v>274</v>
       </c>
     </row>
     <row r="87">
@@ -2511,22 +2511,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2020-12-30</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2021-01-02</t>
+          <t>2021-07-21</t>
         </is>
       </c>
       <c r="D87" t="n">
         <v>5</v>
       </c>
       <c r="E87" t="n">
-        <v>318</v>
+        <v>146</v>
       </c>
       <c r="F87" t="n">
-        <v>425</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88">
@@ -2535,22 +2535,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2021-01-05</t>
+          <t>2021-07-19</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2021-01-08</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="D88" t="n">
         <v>5</v>
       </c>
       <c r="E88" t="n">
-        <v>301</v>
+        <v>382</v>
       </c>
       <c r="F88" t="n">
-        <v>125</v>
+        <v>429</v>
       </c>
     </row>
     <row r="89">
@@ -2559,22 +2559,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2021-01-05</t>
+          <t>2021-07-20</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2021-01-08</t>
+          <t>2021-07-23</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>237</v>
       </c>
       <c r="F89" t="n">
-        <v>49</v>
+        <v>437</v>
       </c>
     </row>
     <row r="90">
@@ -2583,22 +2583,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2021-01-10</t>
+          <t>2021-07-21</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2021-01-13</t>
+          <t>2021-07-24</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E90" t="n">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F90" t="n">
-        <v>358</v>
+        <v>531</v>
       </c>
     </row>
     <row r="91">
@@ -2607,22 +2607,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2021-01-20</t>
+          <t>2021-08-04</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2021-01-23</t>
+          <t>2021-08-07</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E91" t="n">
-        <v>266</v>
+        <v>398</v>
       </c>
       <c r="F91" t="n">
-        <v>328</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92">
@@ -2631,22 +2631,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2021-01-31</t>
+          <t>2021-08-12</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2021-02-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E92" t="n">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="F92" t="n">
-        <v>262</v>
+        <v>539</v>
       </c>
     </row>
     <row r="93">
@@ -2655,22 +2655,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2021-02-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2021-02-06</t>
+          <t>2021-08-18</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E93" t="n">
-        <v>231</v>
+        <v>442</v>
       </c>
       <c r="F93" t="n">
-        <v>146</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94">
@@ -2679,22 +2679,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2021-02-12</t>
+          <t>2021-08-17</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2021-02-15</t>
+          <t>2021-08-20</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E94" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F94" t="n">
-        <v>66</v>
+        <v>321</v>
       </c>
     </row>
     <row r="95">
@@ -2703,22 +2703,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2021-02-14</t>
+          <t>2021-08-23</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2021-02-17</t>
+          <t>2021-08-26</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E95" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="F95" t="n">
-        <v>413</v>
+        <v>458</v>
       </c>
     </row>
     <row r="96">
@@ -2727,22 +2727,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2021-02-18</t>
+          <t>2021-08-26</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2021-02-21</t>
+          <t>2021-08-29</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E96" t="n">
-        <v>469</v>
+        <v>67</v>
       </c>
       <c r="F96" t="n">
-        <v>533</v>
+        <v>462</v>
       </c>
     </row>
     <row r="97">
@@ -2751,22 +2751,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2021-02-26</t>
+          <t>2021-09-06</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2021-03-01</t>
+          <t>2021-09-09</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E97" t="n">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="F97" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="98">
@@ -2775,22 +2775,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2021-03-05</t>
+          <t>2021-09-10</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2021-03-08</t>
+          <t>2021-09-13</t>
         </is>
       </c>
       <c r="D98" t="n">
         <v>6</v>
       </c>
       <c r="E98" t="n">
-        <v>379</v>
+        <v>12</v>
       </c>
       <c r="F98" t="n">
-        <v>140</v>
+        <v>531</v>
       </c>
     </row>
     <row r="99">
@@ -2799,22 +2799,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2021-03-08</t>
+          <t>2021-09-12</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2021-03-11</t>
+          <t>2021-09-15</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E99" t="n">
-        <v>379</v>
+        <v>244</v>
       </c>
       <c r="F99" t="n">
-        <v>140</v>
+        <v>656</v>
       </c>
     </row>
     <row r="100">
@@ -2823,22 +2823,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2021-03-09</t>
+          <t>2021-09-14</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2021-09-17</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E100" t="n">
-        <v>379</v>
+        <v>299</v>
       </c>
       <c r="F100" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101">
@@ -2847,22 +2847,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E101" t="n">
-        <v>237</v>
+        <v>361</v>
       </c>
       <c r="F101" t="n">
-        <v>579</v>
+        <v>410</v>
       </c>
     </row>
     <row r="102">
@@ -2871,22 +2871,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2021-03-23</t>
+          <t>2021-09-30</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2021-03-26</t>
+          <t>2021-10-03</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E102" t="n">
-        <v>361</v>
+        <v>20</v>
       </c>
       <c r="F102" t="n">
-        <v>376</v>
+        <v>296</v>
       </c>
     </row>
     <row r="103">
@@ -2895,22 +2895,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2021-03-30</t>
+          <t>2021-10-11</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2021-04-02</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E103" t="n">
-        <v>175</v>
+        <v>310</v>
       </c>
       <c r="F103" t="n">
-        <v>382</v>
+        <v>179</v>
       </c>
     </row>
     <row r="104">
@@ -2919,22 +2919,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2021-04-11</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2021-04-14</t>
+          <t>2021-10-23</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E104" t="n">
-        <v>90</v>
+        <v>244</v>
       </c>
       <c r="F104" t="n">
-        <v>283</v>
+        <v>656</v>
       </c>
     </row>
     <row r="105">
@@ -2943,22 +2943,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2021-04-14</t>
+          <t>2021-11-09</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2021-04-17</t>
+          <t>2021-11-12</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E105" t="n">
-        <v>119</v>
+        <v>316</v>
       </c>
       <c r="F105" t="n">
-        <v>267</v>
+        <v>197</v>
       </c>
     </row>
     <row r="106">
@@ -2967,22 +2967,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2021-04-15</t>
+          <t>2021-11-16</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-11-19</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E106" t="n">
-        <v>469</v>
+        <v>216</v>
       </c>
       <c r="F106" t="n">
-        <v>533</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107">
@@ -2991,22 +2991,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2021-04-22</t>
+          <t>2021-11-16</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2021-11-19</t>
         </is>
       </c>
       <c r="D107" t="n">
         <v>5</v>
       </c>
       <c r="E107" t="n">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="F107" t="n">
-        <v>319</v>
+        <v>393</v>
       </c>
     </row>
     <row r="108">
@@ -3015,22 +3015,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-11-19</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-11-22</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E108" t="n">
-        <v>384</v>
+        <v>228</v>
       </c>
       <c r="F108" t="n">
-        <v>586</v>
+        <v>268</v>
       </c>
     </row>
     <row r="109">
@@ -3039,22 +3039,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>2021-11-22</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-11-25</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E109" t="n">
-        <v>244</v>
+        <v>349</v>
       </c>
       <c r="F109" t="n">
-        <v>193</v>
+        <v>654</v>
       </c>
     </row>
     <row r="110">
@@ -3063,22 +3063,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>2021-11-24</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2021-05-08</t>
+          <t>2021-11-27</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E110" t="n">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="F110" t="n">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111">
@@ -3087,22 +3087,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-11-27</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-11-30</t>
         </is>
       </c>
       <c r="D111" t="n">
         <v>6</v>
       </c>
       <c r="E111" t="n">
-        <v>425</v>
+        <v>243</v>
       </c>
       <c r="F111" t="n">
-        <v>407</v>
+        <v>558</v>
       </c>
     </row>
     <row r="112">
@@ -3111,22 +3111,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-12-02</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-12-05</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E112" t="n">
-        <v>361</v>
+        <v>246</v>
       </c>
       <c r="F112" t="n">
-        <v>376</v>
+        <v>521</v>
       </c>
     </row>
     <row r="113">
@@ -3135,22 +3135,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-12-02</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-12-05</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E113" t="n">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="F113" t="n">
-        <v>266</v>
+        <v>542</v>
       </c>
     </row>
     <row r="114">
@@ -3159,22 +3159,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2021-06-08</t>
+          <t>2021-12-08</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2021-06-11</t>
+          <t>2021-12-11</t>
         </is>
       </c>
       <c r="D114" t="n">
         <v>6</v>
       </c>
       <c r="E114" t="n">
-        <v>171</v>
+        <v>349</v>
       </c>
       <c r="F114" t="n">
-        <v>383</v>
+        <v>654</v>
       </c>
     </row>
     <row r="115">
@@ -3183,22 +3183,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2021-06-12</t>
+          <t>2021-12-15</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2021-12-18</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E115" t="n">
-        <v>90</v>
+        <v>349</v>
       </c>
       <c r="F115" t="n">
-        <v>283</v>
+        <v>654</v>
       </c>
     </row>
     <row r="116">
@@ -3207,22 +3207,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2021-07-01</t>
+          <t>2021-12-24</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2021-07-04</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E116" t="n">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="F116" t="n">
-        <v>125</v>
+        <v>654</v>
       </c>
     </row>
     <row r="117">
@@ -3231,22 +3231,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2021-07-09</t>
+          <t>2021-12-24</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2021-07-12</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E117" t="n">
-        <v>455</v>
+        <v>344</v>
       </c>
       <c r="F117" t="n">
-        <v>260</v>
+        <v>359</v>
       </c>
     </row>
     <row r="118">
@@ -3255,22 +3255,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2021-07-16</t>
+          <t>2021-12-24</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2021-07-19</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="D118" t="n">
         <v>5</v>
       </c>
       <c r="E118" t="n">
-        <v>308</v>
+        <v>379</v>
       </c>
       <c r="F118" t="n">
-        <v>480</v>
+        <v>448</v>
       </c>
     </row>
     <row r="119">
@@ -3279,22 +3279,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2021-07-17</t>
+          <t>2021-12-25</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
+          <t>2021-12-28</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E119" t="n">
-        <v>212</v>
+        <v>424</v>
       </c>
       <c r="F119" t="n">
-        <v>60</v>
+        <v>384</v>
       </c>
     </row>
     <row r="120">
@@ -3303,22 +3303,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2021-08-13</t>
+          <t>2021-12-25</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2021-08-16</t>
+          <t>2021-12-28</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E120" t="n">
+        <v>398</v>
+      </c>
+      <c r="F120" t="n">
         <v>239</v>
-      </c>
-      <c r="F120" t="n">
-        <v>163</v>
       </c>
     </row>
     <row r="121">
@@ -3327,22 +3327,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2021-08-17</t>
+          <t>2021-12-25</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2021-08-20</t>
+          <t>2021-12-28</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E121" t="n">
-        <v>309</v>
+        <v>199</v>
       </c>
       <c r="F121" t="n">
-        <v>309</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122">
@@ -3351,22 +3351,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2021-08-17</t>
+          <t>2022-01-02</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2021-08-20</t>
+          <t>2022-01-05</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E122" t="n">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="F122" t="n">
-        <v>62</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123">
@@ -3375,22 +3375,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2021-08-19</t>
+          <t>2022-01-09</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2021-08-22</t>
+          <t>2022-01-12</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E123" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F123" t="n">
-        <v>69</v>
+        <v>390</v>
       </c>
     </row>
     <row r="124">
@@ -3399,22 +3399,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2021-08-23</t>
+          <t>2022-01-14</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2021-08-26</t>
+          <t>2022-01-17</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E124" t="n">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="F124" t="n">
-        <v>140</v>
+        <v>383</v>
       </c>
     </row>
     <row r="125">
@@ -3423,22 +3423,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2022-01-19</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2021-08-27</t>
+          <t>2022-01-22</t>
         </is>
       </c>
       <c r="D125" t="n">
         <v>5</v>
       </c>
       <c r="E125" t="n">
-        <v>320</v>
+        <v>59</v>
       </c>
       <c r="F125" t="n">
-        <v>552</v>
+        <v>467</v>
       </c>
     </row>
     <row r="126">
@@ -3447,22 +3447,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2021-08-26</t>
+          <t>2022-01-23</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2021-08-29</t>
+          <t>2022-01-26</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E126" t="n">
-        <v>318</v>
+        <v>475</v>
       </c>
       <c r="F126" t="n">
-        <v>395</v>
+        <v>424</v>
       </c>
     </row>
     <row r="127">
@@ -3471,22 +3471,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2021-08-29</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2021-09-01</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E127" t="n">
-        <v>454</v>
+        <v>18</v>
       </c>
       <c r="F127" t="n">
-        <v>554</v>
+        <v>356</v>
       </c>
     </row>
     <row r="128">
@@ -3495,22 +3495,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2021-09-05</t>
+          <t>2022-02-03</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E128" t="n">
-        <v>465</v>
+        <v>398</v>
       </c>
       <c r="F128" t="n">
-        <v>68</v>
+        <v>239</v>
       </c>
     </row>
     <row r="129">
@@ -3519,22 +3519,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2021-09-05</t>
+          <t>2022-02-02</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2021-09-08</t>
+          <t>2022-02-05</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E129" t="n">
-        <v>119</v>
+        <v>297</v>
       </c>
       <c r="F129" t="n">
-        <v>267</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130">
@@ -3543,22 +3543,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2021-09-07</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2021-09-10</t>
+          <t>2022-02-18</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E130" t="n">
-        <v>169</v>
+        <v>430</v>
       </c>
       <c r="F130" t="n">
-        <v>282</v>
+        <v>495</v>
       </c>
     </row>
     <row r="131">
@@ -3567,22 +3567,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2021-09-28</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2022-02-25</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E131" t="n">
-        <v>353</v>
+        <v>124</v>
       </c>
       <c r="F131" t="n">
-        <v>446</v>
+        <v>621</v>
       </c>
     </row>
     <row r="132">
@@ -3591,22 +3591,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2021-10-04</t>
+          <t>2022-02-27</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E132" t="n">
-        <v>90</v>
+        <v>244</v>
       </c>
       <c r="F132" t="n">
-        <v>283</v>
+        <v>656</v>
       </c>
     </row>
     <row r="133">
@@ -3615,22 +3615,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2021-10-02</t>
+          <t>2022-03-01</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2021-10-05</t>
+          <t>2022-03-04</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E133" t="n">
-        <v>86</v>
+        <v>433</v>
       </c>
       <c r="F133" t="n">
-        <v>305</v>
+        <v>445</v>
       </c>
     </row>
     <row r="134">
@@ -3639,22 +3639,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2021-10-06</t>
+          <t>2022-03-06</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2021-10-09</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E134" t="n">
-        <v>432</v>
+        <v>270</v>
       </c>
       <c r="F134" t="n">
-        <v>456</v>
+        <v>321</v>
       </c>
     </row>
     <row r="135">
@@ -3663,22 +3663,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2021-10-07</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2021-10-10</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E135" t="n">
-        <v>482</v>
+        <v>257</v>
       </c>
       <c r="F135" t="n">
-        <v>44</v>
+        <v>478</v>
       </c>
     </row>
     <row r="136">
@@ -3687,22 +3687,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2021-10-17</t>
+          <t>2022-03-10</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2021-10-20</t>
+          <t>2022-03-13</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E136" t="n">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="F136" t="n">
-        <v>305</v>
+        <v>279</v>
       </c>
     </row>
     <row r="137">
@@ -3711,22 +3711,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2021-10-18</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E137" t="n">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F137" t="n">
-        <v>205</v>
+        <v>631</v>
       </c>
     </row>
     <row r="138">
@@ -3735,22 +3735,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2021-10-28</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2021-10-31</t>
+          <t>2022-03-26</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E138" t="n">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="F138" t="n">
-        <v>190</v>
+        <v>419</v>
       </c>
     </row>
     <row r="139">
@@ -3759,22 +3759,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2021-11-04</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2021-11-07</t>
+          <t>2022-03-28</t>
         </is>
       </c>
       <c r="D139" t="n">
         <v>6</v>
       </c>
       <c r="E139" t="n">
-        <v>160</v>
+        <v>442</v>
       </c>
       <c r="F139" t="n">
-        <v>190</v>
+        <v>368</v>
       </c>
     </row>
     <row r="140">
@@ -3783,22 +3783,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2021-11-12</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2021-11-15</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E140" t="n">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="F140" t="n">
-        <v>344</v>
+        <v>239</v>
       </c>
     </row>
     <row r="141">
@@ -3807,22 +3807,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2021-11-12</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2021-11-15</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E141" t="n">
-        <v>458</v>
+        <v>224</v>
       </c>
       <c r="F141" t="n">
-        <v>556</v>
+        <v>77</v>
       </c>
     </row>
     <row r="142">
@@ -3831,22 +3831,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2021-11-15</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2021-11-18</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E142" t="n">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="F142" t="n">
-        <v>575</v>
+        <v>355</v>
       </c>
     </row>
     <row r="143">
@@ -3855,22 +3855,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2021-11-21</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2021-11-24</t>
+          <t>2022-04-09</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E143" t="n">
-        <v>300</v>
+        <v>479</v>
       </c>
       <c r="F143" t="n">
-        <v>179</v>
+        <v>643</v>
       </c>
     </row>
     <row r="144">
@@ -3879,22 +3879,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2021-11-23</t>
+          <t>2022-04-09</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2021-11-26</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E144" t="n">
-        <v>289</v>
+        <v>445</v>
       </c>
       <c r="F144" t="n">
-        <v>222</v>
+        <v>67</v>
       </c>
     </row>
     <row r="145">
@@ -3903,22 +3903,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2021-12-02</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E145" t="n">
-        <v>47</v>
+        <v>245</v>
       </c>
       <c r="F145" t="n">
-        <v>262</v>
+        <v>553</v>
       </c>
     </row>
     <row r="146">
@@ -3927,22 +3927,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2021-12-03</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2021-12-06</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E146" t="n">
-        <v>209</v>
+        <v>398</v>
       </c>
       <c r="F146" t="n">
-        <v>351</v>
+        <v>239</v>
       </c>
     </row>
     <row r="147">
@@ -3951,22 +3951,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2021-12-05</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2021-12-08</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="F147" t="n">
-        <v>598</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148">
@@ -3975,22 +3975,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2021-12-13</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2021-12-16</t>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E148" t="n">
-        <v>221</v>
+        <v>456</v>
       </c>
       <c r="F148" t="n">
-        <v>621</v>
+        <v>73</v>
       </c>
     </row>
     <row r="149">
@@ -3999,22 +3999,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2021-12-18</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2021-12-21</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="D149" t="n">
         <v>6</v>
       </c>
       <c r="E149" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="F149" t="n">
-        <v>49</v>
+        <v>649</v>
       </c>
     </row>
     <row r="150">
@@ -4023,22 +4023,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2021-12-19</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="D150" t="n">
         <v>6</v>
       </c>
       <c r="E150" t="n">
-        <v>377</v>
+        <v>12</v>
       </c>
       <c r="F150" t="n">
-        <v>361</v>
+        <v>531</v>
       </c>
     </row>
     <row r="151">
@@ -4047,22 +4047,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2021-12-21</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2021-12-24</t>
+          <t>2022-05-09</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E151" t="n">
-        <v>350</v>
+        <v>47</v>
       </c>
       <c r="F151" t="n">
-        <v>401</v>
+        <v>649</v>
       </c>
     </row>
     <row r="152">
@@ -4071,22 +4071,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2022-01-02</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2022-01-05</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="D152" t="n">
         <v>5</v>
       </c>
       <c r="E152" t="n">
-        <v>411</v>
+        <v>297</v>
       </c>
       <c r="F152" t="n">
-        <v>293</v>
+        <v>84</v>
       </c>
     </row>
     <row r="153">
@@ -4095,22 +4095,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2022-01-03</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2022-01-06</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E153" t="n">
-        <v>10</v>
+        <v>291</v>
       </c>
       <c r="F153" t="n">
-        <v>306</v>
+        <v>281</v>
       </c>
     </row>
     <row r="154">
@@ -4119,22 +4119,22 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2022-01-12</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2022-01-15</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E154" t="n">
         <v>298</v>
       </c>
       <c r="F154" t="n">
-        <v>592</v>
+        <v>387</v>
       </c>
     </row>
     <row r="155">
@@ -4143,22 +4143,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2022-01-22</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E155" t="n">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="F155" t="n">
-        <v>60</v>
+        <v>221</v>
       </c>
     </row>
     <row r="156">
@@ -4167,22 +4167,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2022-01-20</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2022-01-23</t>
+          <t>2022-05-28</t>
         </is>
       </c>
       <c r="D156" t="n">
         <v>6</v>
       </c>
       <c r="E156" t="n">
-        <v>119</v>
+        <v>419</v>
       </c>
       <c r="F156" t="n">
-        <v>267</v>
+        <v>141</v>
       </c>
     </row>
     <row r="157">
@@ -4191,22 +4191,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2022-01-29</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2022-02-01</t>
+          <t>2022-06-12</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E157" t="n">
-        <v>409</v>
+        <v>77</v>
       </c>
       <c r="F157" t="n">
-        <v>553</v>
+        <v>194</v>
       </c>
     </row>
     <row r="158">
@@ -4215,22 +4215,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2022-01-30</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2022-02-02</t>
+          <t>2022-06-17</t>
         </is>
       </c>
       <c r="D158" t="n">
         <v>4</v>
       </c>
       <c r="E158" t="n">
-        <v>231</v>
+        <v>65</v>
       </c>
       <c r="F158" t="n">
-        <v>146</v>
+        <v>193</v>
       </c>
     </row>
     <row r="159">
@@ -4239,22 +4239,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2022-06-18</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2022-02-03</t>
+          <t>2022-06-21</t>
         </is>
       </c>
       <c r="D159" t="n">
         <v>4</v>
       </c>
       <c r="E159" t="n">
-        <v>244</v>
+        <v>354</v>
       </c>
       <c r="F159" t="n">
-        <v>193</v>
+        <v>404</v>
       </c>
     </row>
     <row r="160">
@@ -4263,22 +4263,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2022-02-03</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-06-25</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E160" t="n">
-        <v>104</v>
+        <v>379</v>
       </c>
       <c r="F160" t="n">
-        <v>427</v>
+        <v>448</v>
       </c>
     </row>
     <row r="161">
@@ -4287,22 +4287,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2022-02-07</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2022-07-11</t>
         </is>
       </c>
       <c r="D161" t="n">
         <v>4</v>
       </c>
       <c r="E161" t="n">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="F161" t="n">
-        <v>260</v>
+        <v>142</v>
       </c>
     </row>
     <row r="162">
@@ -4311,22 +4311,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
+          <t>2022-07-12</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E162" t="n">
-        <v>244</v>
+        <v>355</v>
       </c>
       <c r="F162" t="n">
-        <v>193</v>
+        <v>383</v>
       </c>
     </row>
     <row r="163">
@@ -4335,22 +4335,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2022-02-27</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-07-30</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E163" t="n">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="F163" t="n">
-        <v>553</v>
+        <v>448</v>
       </c>
     </row>
     <row r="164">
@@ -4359,22 +4359,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-07-28</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2022-07-31</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E164" t="n">
-        <v>61</v>
+        <v>459</v>
       </c>
       <c r="F164" t="n">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="165">
@@ -4383,22 +4383,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-07-30</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E165" t="n">
-        <v>455</v>
+        <v>164</v>
       </c>
       <c r="F165" t="n">
-        <v>260</v>
+        <v>375</v>
       </c>
     </row>
     <row r="166">
@@ -4407,22 +4407,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E166" t="n">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="F166" t="n">
-        <v>174</v>
+        <v>465</v>
       </c>
     </row>
     <row r="167">
@@ -4431,22 +4431,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-08-03</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2022-08-06</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E167" t="n">
-        <v>175</v>
+        <v>284</v>
       </c>
       <c r="F167" t="n">
-        <v>382</v>
+        <v>536</v>
       </c>
     </row>
     <row r="168">
@@ -4455,22 +4455,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2022-08-19</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2022-08-22</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E168" t="n">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="F168" t="n">
-        <v>193</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169">
@@ -4479,22 +4479,22 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2022-04-03</t>
+          <t>2022-09-04</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-09-07</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E169" t="n">
-        <v>384</v>
+        <v>94</v>
       </c>
       <c r="F169" t="n">
-        <v>586</v>
+        <v>364</v>
       </c>
     </row>
     <row r="170">
@@ -4503,22 +4503,22 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2022-10-07</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E170" t="n">
-        <v>353</v>
+        <v>7</v>
       </c>
       <c r="F170" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="171">
@@ -4527,22 +4527,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E171" t="n">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="F171" t="n">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="172">
@@ -4551,22 +4551,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-10-29</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E172" t="n">
-        <v>318</v>
+        <v>154</v>
       </c>
       <c r="F172" t="n">
-        <v>395</v>
+        <v>165</v>
       </c>
     </row>
     <row r="173">
@@ -4575,22 +4575,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E173" t="n">
-        <v>372</v>
+        <v>296</v>
       </c>
       <c r="F173" t="n">
-        <v>474</v>
+        <v>630</v>
       </c>
     </row>
     <row r="174">
@@ -4599,22 +4599,22 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-10-29</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E174" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F174" t="n">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="175">
@@ -4623,22 +4623,22 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2022-05-10</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2022-05-13</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E175" t="n">
-        <v>142</v>
+        <v>424</v>
       </c>
       <c r="F175" t="n">
-        <v>458</v>
+        <v>666</v>
       </c>
     </row>
     <row r="176">
@@ -4647,22 +4647,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-11-05</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E176" t="n">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="F176" t="n">
-        <v>463</v>
+        <v>356</v>
       </c>
     </row>
     <row r="177">
@@ -4671,598 +4671,22 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2022-05-26</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2022-05-29</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E177" t="n">
-        <v>432</v>
+        <v>12</v>
       </c>
       <c r="F177" t="n">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>177</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022-05-29</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>2022-06-01</t>
-        </is>
-      </c>
-      <c r="D178" t="n">
-        <v>3</v>
-      </c>
-      <c r="E178" t="n">
-        <v>269</v>
-      </c>
-      <c r="F178" t="n">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>178</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022-06-20</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>2022-06-23</t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v>3</v>
-      </c>
-      <c r="E179" t="n">
-        <v>149</v>
-      </c>
-      <c r="F179" t="n">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>179</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022-07-06</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>2022-07-09</t>
-        </is>
-      </c>
-      <c r="D180" t="n">
-        <v>6</v>
-      </c>
-      <c r="E180" t="n">
-        <v>309</v>
-      </c>
-      <c r="F180" t="n">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>180</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022-07-06</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>2022-07-09</t>
-        </is>
-      </c>
-      <c r="D181" t="n">
-        <v>1</v>
-      </c>
-      <c r="E181" t="n">
-        <v>88</v>
-      </c>
-      <c r="F181" t="n">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>181</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022-07-07</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>2022-07-10</t>
-        </is>
-      </c>
-      <c r="D182" t="n">
-        <v>1</v>
-      </c>
-      <c r="E182" t="n">
-        <v>119</v>
-      </c>
-      <c r="F182" t="n">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>182</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022-07-09</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>2022-07-12</t>
-        </is>
-      </c>
-      <c r="D183" t="n">
-        <v>1</v>
-      </c>
-      <c r="E183" t="n">
-        <v>492</v>
-      </c>
-      <c r="F183" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>183</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022-07-27</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>2022-07-30</t>
-        </is>
-      </c>
-      <c r="D184" t="n">
-        <v>5</v>
-      </c>
-      <c r="E184" t="n">
-        <v>325</v>
-      </c>
-      <c r="F184" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>184</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022-07-27</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>2022-07-30</t>
-        </is>
-      </c>
-      <c r="D185" t="n">
-        <v>6</v>
-      </c>
-      <c r="E185" t="n">
-        <v>465</v>
-      </c>
-      <c r="F185" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>185</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022-08-11</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>2022-08-14</t>
-        </is>
-      </c>
-      <c r="D186" t="n">
-        <v>2</v>
-      </c>
-      <c r="E186" t="n">
-        <v>47</v>
-      </c>
-      <c r="F186" t="n">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>186</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022-08-13</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>2022-08-16</t>
-        </is>
-      </c>
-      <c r="D187" t="n">
-        <v>1</v>
-      </c>
-      <c r="E187" t="n">
-        <v>171</v>
-      </c>
-      <c r="F187" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>187</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022-08-13</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>2022-08-16</t>
-        </is>
-      </c>
-      <c r="D188" t="n">
-        <v>3</v>
-      </c>
-      <c r="E188" t="n">
-        <v>234</v>
-      </c>
-      <c r="F188" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>188</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022-08-31</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>2022-09-03</t>
-        </is>
-      </c>
-      <c r="D189" t="n">
-        <v>5</v>
-      </c>
-      <c r="E189" t="n">
-        <v>171</v>
-      </c>
-      <c r="F189" t="n">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>189</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022-09-06</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>2022-09-09</t>
-        </is>
-      </c>
-      <c r="D190" t="n">
-        <v>1</v>
-      </c>
-      <c r="E190" t="n">
-        <v>155</v>
-      </c>
-      <c r="F190" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>190</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022-09-06</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>2022-09-09</t>
-        </is>
-      </c>
-      <c r="D191" t="n">
-        <v>4</v>
-      </c>
-      <c r="E191" t="n">
-        <v>438</v>
-      </c>
-      <c r="F191" t="n">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>191</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022-09-14</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>2022-09-17</t>
-        </is>
-      </c>
-      <c r="D192" t="n">
-        <v>2</v>
-      </c>
-      <c r="E192" t="n">
-        <v>237</v>
-      </c>
-      <c r="F192" t="n">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>192</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022-09-20</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>2022-09-23</t>
-        </is>
-      </c>
-      <c r="D193" t="n">
-        <v>3</v>
-      </c>
-      <c r="E193" t="n">
-        <v>252</v>
-      </c>
-      <c r="F193" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>193</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022-09-23</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>2022-09-26</t>
-        </is>
-      </c>
-      <c r="D194" t="n">
-        <v>6</v>
-      </c>
-      <c r="E194" t="n">
-        <v>486</v>
-      </c>
-      <c r="F194" t="n">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>194</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022-09-26</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>2022-09-29</t>
-        </is>
-      </c>
-      <c r="D195" t="n">
-        <v>1</v>
-      </c>
-      <c r="E195" t="n">
-        <v>392</v>
-      </c>
-      <c r="F195" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>195</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022-10-01</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>2022-10-04</t>
-        </is>
-      </c>
-      <c r="D196" t="n">
-        <v>6</v>
-      </c>
-      <c r="E196" t="n">
-        <v>88</v>
-      </c>
-      <c r="F196" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>196</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022-10-03</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>2022-10-06</t>
-        </is>
-      </c>
-      <c r="D197" t="n">
-        <v>2</v>
-      </c>
-      <c r="E197" t="n">
-        <v>73</v>
-      </c>
-      <c r="F197" t="n">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>197</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022-10-13</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>2022-10-16</t>
-        </is>
-      </c>
-      <c r="D198" t="n">
-        <v>6</v>
-      </c>
-      <c r="E198" t="n">
-        <v>169</v>
-      </c>
-      <c r="F198" t="n">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>198</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022-11-01</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>2022-11-04</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
-        <v>3</v>
-      </c>
-      <c r="E199" t="n">
-        <v>225</v>
-      </c>
-      <c r="F199" t="n">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>199</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022-11-06</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>2022-11-09</t>
-        </is>
-      </c>
-      <c r="D200" t="n">
-        <v>3</v>
-      </c>
-      <c r="E200" t="n">
-        <v>392</v>
-      </c>
-      <c r="F200" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>200</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022-11-12</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>2022-11-15</t>
-        </is>
-      </c>
-      <c r="D201" t="n">
-        <v>1</v>
-      </c>
-      <c r="E201" t="n">
-        <v>88</v>
-      </c>
-      <c r="F201" t="n">
-        <v>410</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
